--- a/uploads/LISTE.xlsx
+++ b/uploads/LISTE.xlsx
@@ -5,38 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kentseltasarım\Desktop\83-) 3008-DEMİRKAPI MAH\2- Malik Listesi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC36E6E9-990A-4A4A-A326-B729D93CF442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357EA838-91F3-45C3-AD89-AAB1AB327667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="İNÖNÜ MH." sheetId="9" r:id="rId1"/>
+    <sheet name="GÜNEŞLİ MH." sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>isim</t>
   </si>
@@ -68,188 +57,239 @@
     <t>kdsid</t>
   </si>
   <si>
-    <t>MAKBULE DALĞIÇ</t>
-  </si>
-  <si>
-    <t>MEHMET RACİ KIZIL</t>
-  </si>
-  <si>
-    <t>MİTHAT KURT</t>
-  </si>
-  <si>
-    <t>SERKAR TARLAN</t>
-  </si>
-  <si>
-    <t>ŞAHABETTİN HULAK</t>
-  </si>
-  <si>
-    <t>PAKİZE HULAK</t>
-  </si>
-  <si>
-    <t>RESUL OKTAY</t>
-  </si>
-  <si>
-    <t>ABDURRAHMAN GEVEN</t>
-  </si>
-  <si>
-    <t>TÜRKAN OKYAY</t>
-  </si>
-  <si>
-    <t>ŞÜKRAN ANAYURT</t>
-  </si>
-  <si>
-    <t>NURAN SEZGİN</t>
-  </si>
-  <si>
-    <t>KAZIM KOÇER</t>
-  </si>
-  <si>
-    <t>NURETTİN YARAY</t>
-  </si>
-  <si>
-    <t>ABUBEKİR YILDIRIM</t>
-  </si>
-  <si>
-    <t>EMİN MENTEŞ</t>
-  </si>
-  <si>
-    <t>SİSE UĞURLU</t>
-  </si>
-  <si>
-    <t>BİŞAR AYDIN</t>
-  </si>
-  <si>
-    <t>ETEM ALAKUŞ</t>
-  </si>
-  <si>
-    <t>SEYİTHAN ALAKUŞ</t>
-  </si>
-  <si>
-    <t>PAMUK COŞKUN</t>
-  </si>
-  <si>
-    <t>CENGİZ COŞKUN</t>
-  </si>
-  <si>
-    <t>AYTEN KARATAŞ</t>
-  </si>
-  <si>
-    <t>AKDOĞAN COŞKUN</t>
-  </si>
-  <si>
-    <t>TACETTİN İNAN</t>
-  </si>
-  <si>
-    <t>ABDULBAKİ İNAN</t>
-  </si>
-  <si>
-    <t>SIRACETTİN İNAN</t>
-  </si>
-  <si>
-    <t>TAJDİN İNAN</t>
-  </si>
-  <si>
-    <t>NUSRET KARABAY</t>
-  </si>
-  <si>
-    <t>CİHAN KARABAY</t>
-  </si>
-  <si>
-    <t>MEHMET KARABAY</t>
-  </si>
-  <si>
-    <t>ABDULMENAF İNAN</t>
-  </si>
-  <si>
-    <t>OSMAN GÜR</t>
-  </si>
-  <si>
-    <t>KAMİLE ÖZDEMİR</t>
-  </si>
-  <si>
-    <t>İBRAHİM ÖZDEMİR</t>
-  </si>
-  <si>
-    <t>0535 464 81 13</t>
-  </si>
-  <si>
-    <t>0536 666 77 13</t>
-  </si>
-  <si>
-    <t>0530 289 46 99</t>
-  </si>
-  <si>
-    <t>0532 550 55 98</t>
-  </si>
-  <si>
-    <t>0531 024 10 49</t>
-  </si>
-  <si>
-    <t>0536 260 26 59</t>
-  </si>
-  <si>
-    <t>0535 540 11 41</t>
-  </si>
-  <si>
-    <t>0533 666 40 71</t>
-  </si>
-  <si>
-    <t>0535 793 90 79</t>
-  </si>
-  <si>
-    <t>0537 713 16 74</t>
-  </si>
-  <si>
-    <t>0535 216 40 09</t>
-  </si>
-  <si>
-    <t>0531 955 60 13</t>
-  </si>
-  <si>
-    <t>0531 609 58 09</t>
-  </si>
-  <si>
-    <t>0532 252 04 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0532 625 25 70 </t>
-  </si>
-  <si>
-    <t>0543 733 05 35</t>
-  </si>
-  <si>
-    <t>0538 762 62 68</t>
-  </si>
-  <si>
-    <t>0544 433 13 34</t>
-  </si>
-  <si>
-    <t>0538 449 09 76</t>
-  </si>
-  <si>
-    <t>0530 234 13 52</t>
-  </si>
-  <si>
-    <t>0530 911 43 33</t>
-  </si>
-  <si>
-    <t>0531 911 43 33</t>
-  </si>
-  <si>
-    <t>0505 500 77 19</t>
-  </si>
-  <si>
-    <t>0535 813 31 38</t>
-  </si>
-  <si>
-    <t>0536 050 48 20</t>
+    <t>NEVZAT ŞAHİN</t>
+  </si>
+  <si>
+    <t>EMRAH ERSOY</t>
+  </si>
+  <si>
+    <t>HEDİYE YILMAZ</t>
+  </si>
+  <si>
+    <t>TURAN ERTÜRK</t>
+  </si>
+  <si>
+    <t>MUSTAFA OĞUZHAN</t>
+  </si>
+  <si>
+    <t>YUNUS AKSAKAL</t>
+  </si>
+  <si>
+    <t>YAVUZ AKSAKAL</t>
+  </si>
+  <si>
+    <t>METEHAN AKSAKAL</t>
+  </si>
+  <si>
+    <t>MUSTAFA CAVA</t>
+  </si>
+  <si>
+    <t>BAYRAM CAVA</t>
+  </si>
+  <si>
+    <t>MUZAFFER PEKER</t>
+  </si>
+  <si>
+    <t>KERZİBAN DEMİR</t>
+  </si>
+  <si>
+    <t>MELİHA DEMİR</t>
+  </si>
+  <si>
+    <t>DURSUN DEMİR</t>
+  </si>
+  <si>
+    <t>SEMİHA DEMİR</t>
+  </si>
+  <si>
+    <t>YUSUF DEMİR</t>
+  </si>
+  <si>
+    <t>SATİ DÜNMEZ</t>
+  </si>
+  <si>
+    <t>HASAN TURGUT</t>
+  </si>
+  <si>
+    <t>MUSA TURGUT</t>
+  </si>
+  <si>
+    <t>BİLAL TOPÇU</t>
+  </si>
+  <si>
+    <t>CİHAN YILMAZ</t>
+  </si>
+  <si>
+    <t>AYDIN YILMAZ</t>
+  </si>
+  <si>
+    <t>CENGİZ YILMAZ</t>
+  </si>
+  <si>
+    <t>EŞREF YILMAZ</t>
+  </si>
+  <si>
+    <t>NİYAZİ KURU</t>
+  </si>
+  <si>
+    <t>RASİM TOPAL</t>
+  </si>
+  <si>
+    <t>ALİ TOPAL</t>
+  </si>
+  <si>
+    <t>HATİCE ÖZAKINCI</t>
+  </si>
+  <si>
+    <t>MÜRSEL TOPAL</t>
+  </si>
+  <si>
+    <t>AYŞE ÇOBAN</t>
+  </si>
+  <si>
+    <t>ŞERİFE ÇOBAN</t>
+  </si>
+  <si>
+    <t>YASİN ÇOBAN</t>
+  </si>
+  <si>
+    <t>SELCEN HATUN ÇOBAN</t>
+  </si>
+  <si>
+    <t>ADEM YILMAZ</t>
+  </si>
+  <si>
+    <t>AYHAN YILMAZ</t>
+  </si>
+  <si>
+    <t>TURGUT YILMAZ</t>
+  </si>
+  <si>
+    <t>AYNUR YILMAZ</t>
+  </si>
+  <si>
+    <t>AYTEN YILMAZ</t>
+  </si>
+  <si>
+    <t>METİN ER</t>
+  </si>
+  <si>
+    <t>AYŞE DEMİR</t>
+  </si>
+  <si>
+    <t>EMİNE ÇOBAN</t>
+  </si>
+  <si>
+    <t>FATMA SERDAR</t>
+  </si>
+  <si>
+    <t>GÜLÜZAR ÇOBAN</t>
+  </si>
+  <si>
+    <t>KAAN ÇOBAN</t>
+  </si>
+  <si>
+    <t>EMİNE BAŞLI</t>
+  </si>
+  <si>
+    <t>MEHMET ŞEVKE</t>
+  </si>
+  <si>
+    <t>0536 557 00 44</t>
+  </si>
+  <si>
+    <t>0544 779 26 17</t>
+  </si>
+  <si>
+    <t>0538 485 14 93</t>
+  </si>
+  <si>
+    <t>0542 778 70 85</t>
+  </si>
+  <si>
+    <t>0532 203 15 82</t>
+  </si>
+  <si>
+    <t>0541 491 65 65</t>
+  </si>
+  <si>
+    <t>0545 231 09 97</t>
+  </si>
+  <si>
+    <t>0535 210 93 85</t>
+  </si>
+  <si>
+    <t>0537 742 14 13</t>
+  </si>
+  <si>
+    <t>0539 293 95 37</t>
+  </si>
+  <si>
+    <t>0536 932 63 55</t>
+  </si>
+  <si>
+    <t>0533 330 30 76</t>
+  </si>
+  <si>
+    <t>0544 473 95 16</t>
+  </si>
+  <si>
+    <t>0543 427 60 35</t>
+  </si>
+  <si>
+    <t>0532 721 45 11</t>
+  </si>
+  <si>
+    <t>0538 833 99 95</t>
+  </si>
+  <si>
+    <t>0544 493 95 16</t>
+  </si>
+  <si>
+    <t>0533 022 20 38</t>
+  </si>
+  <si>
+    <t>0507 906 49 85</t>
+  </si>
+  <si>
+    <t>0536 557 40 63</t>
+  </si>
+  <si>
+    <t>0541 431 01 84</t>
+  </si>
+  <si>
+    <t>0538 350 45 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0531 850 43 95 </t>
+  </si>
+  <si>
+    <t>0546 734 77 88</t>
+  </si>
+  <si>
+    <t>0553 473 38 36</t>
+  </si>
+  <si>
+    <t>0543 722 25 10</t>
+  </si>
+  <si>
+    <t>0536 816 99 97</t>
+  </si>
+  <si>
+    <t>0532 208 69 19</t>
+  </si>
+  <si>
+    <t>0531 956 54 61</t>
+  </si>
+  <si>
+    <t>0533 421 61 64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +325,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -326,7 +374,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,8 +394,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -635,26 +684,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H43"/>
+      <selection activeCell="D2" sqref="D2:G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -691,27 +740,27 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4">
-        <v>20305557108</v>
-      </c>
-      <c r="D2" s="8">
-        <v>306.36</v>
-      </c>
-      <c r="E2" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="C2" s="7">
+        <v>34088039836</v>
+      </c>
+      <c r="D2" s="9">
+        <v>350.5</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="5">
-        <v>118</v>
+        <v>161.6</v>
       </c>
       <c r="G2" s="5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J2" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -719,53 +768,55 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4">
-        <v>26962335578</v>
-      </c>
-      <c r="D3" s="8">
-        <v>306.36</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="C3" s="7">
+        <v>36047247924</v>
+      </c>
+      <c r="D3" s="9">
+        <v>350.5</v>
+      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="5">
-        <v>118</v>
+        <v>161.6</v>
       </c>
       <c r="G3" s="5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J3" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <v>20203560514</v>
-      </c>
-      <c r="D4" s="8">
-        <v>306.36</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="B4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7">
+        <v>19300580860</v>
+      </c>
+      <c r="D4" s="9">
+        <v>350.5</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="5">
-        <v>118</v>
+        <v>161.6</v>
       </c>
       <c r="G4" s="5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J4" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -773,27 +824,27 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4">
-        <v>20635546360</v>
-      </c>
-      <c r="D5" s="8">
-        <v>306.36</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="C5" s="7">
+        <v>27584073152</v>
+      </c>
+      <c r="D5" s="9">
+        <v>350.5</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="5">
-        <v>118</v>
+        <v>161.6</v>
       </c>
       <c r="G5" s="5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J5" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -801,27 +852,27 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4">
-        <v>26551348712</v>
-      </c>
-      <c r="D6" s="8">
-        <v>306.36</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="7">
+        <v>14851324468</v>
+      </c>
+      <c r="D6" s="9">
+        <v>350.5</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="5">
-        <v>118</v>
+        <v>161.6</v>
       </c>
       <c r="G6" s="5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J6" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -829,27 +880,27 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4">
-        <v>26503350374</v>
-      </c>
-      <c r="D7" s="8">
-        <v>306.36</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45829036366</v>
+      </c>
+      <c r="D7" s="9">
+        <v>350.5</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="5">
-        <v>118</v>
+        <v>161.6</v>
       </c>
       <c r="G7" s="5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J7" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -857,25 +908,27 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8">
-        <v>427.9</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45778038046</v>
+      </c>
+      <c r="D8" s="9">
+        <v>350.5</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="5">
-        <v>118</v>
+        <v>161.6</v>
       </c>
       <c r="G8" s="5">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J8" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -883,27 +936,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="4">
-        <v>21379646132</v>
-      </c>
-      <c r="D9" s="8">
-        <v>445.1</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45730039630</v>
+      </c>
+      <c r="D9" s="9">
+        <v>350.5</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="5">
-        <v>130</v>
+        <v>161.6</v>
       </c>
       <c r="G9" s="5">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J9" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -911,105 +964,109 @@
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4">
-        <v>20611844466</v>
-      </c>
-      <c r="D10" s="8">
-        <v>445.1</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="C10" s="7">
+        <v>18098257190</v>
+      </c>
+      <c r="D10" s="9">
+        <v>345.70499999999998</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="5">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="G10" s="5">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J10" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <v>30922328616</v>
-      </c>
-      <c r="D11" s="8">
-        <v>445.1</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7">
+        <v>18089257482</v>
+      </c>
+      <c r="D11" s="9">
+        <v>345.70499999999998</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="5">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="G11" s="5">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J11" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="4">
-        <v>30499976692</v>
-      </c>
-      <c r="D12" s="8">
-        <v>445.1</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7">
+        <v>47188606594</v>
+      </c>
+      <c r="D12" s="9">
+        <v>345.70499999999998</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="5">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="G12" s="5">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J12" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8">
-        <v>436.5</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="7">
+        <v>27047091044</v>
+      </c>
+      <c r="D13" s="9">
+        <v>350.54950000000002</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="5">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="G13" s="5">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J13" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,27 +1074,27 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13618780172</v>
-      </c>
-      <c r="D14" s="8">
-        <v>461.38</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="C14" s="7">
+        <v>27095089482</v>
+      </c>
+      <c r="D14" s="9">
+        <v>350.54950000000002</v>
+      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="5">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G14" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J14" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1045,27 +1102,27 @@
         <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="4">
-        <v>33250125742</v>
-      </c>
-      <c r="D15" s="8">
-        <v>461.38</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="C15" s="7">
+        <v>27077090024</v>
+      </c>
+      <c r="D15" s="9">
+        <v>350.54950000000002</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="5">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G15" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J15" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1073,53 +1130,55 @@
         <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="4">
-        <v>21670511474</v>
-      </c>
-      <c r="D16" s="8">
-        <v>461.38</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="7">
+        <v>27071090242</v>
+      </c>
+      <c r="D16" s="9">
+        <v>350.54950000000002</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="5">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" s="5">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J16" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
-        <v>15193717352</v>
-      </c>
-      <c r="D17" s="8">
-        <v>461.38</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="7">
+        <v>27068090316</v>
+      </c>
+      <c r="D17" s="9">
+        <v>350.54950000000002</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="5">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G17" s="5">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J17" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1127,733 +1186,1005 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="4">
-        <v>21685511414</v>
-      </c>
-      <c r="D18" s="8">
-        <v>461.38</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C18" s="7">
+        <v>58798224870</v>
+      </c>
+      <c r="D18" s="9">
+        <v>350.54950000000002</v>
+      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="5">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G18" s="5">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J18" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="4">
-        <v>13120796784</v>
-      </c>
-      <c r="D19" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E19" s="8"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9">
+        <v>1051.5</v>
+      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="5">
-        <v>128.28</v>
+        <v>444</v>
       </c>
       <c r="G19" s="5">
-        <v>12.5</v>
+        <v>222</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J19" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="4">
-        <v>13084797964</v>
-      </c>
-      <c r="D20" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="7">
+        <v>25363155044</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1051.5</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="5">
-        <v>128.28</v>
+        <v>444</v>
       </c>
       <c r="G20" s="5">
-        <v>12.5</v>
+        <v>222</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J20" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="4">
-        <v>13084797964</v>
-      </c>
-      <c r="D21" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="C21" s="7">
+        <v>26107803962</v>
+      </c>
+      <c r="D21" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="5">
-        <v>128.28</v>
+        <v>258</v>
       </c>
       <c r="G21" s="5">
-        <v>12.5</v>
+        <v>44</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J21" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="4">
-        <v>13120796784</v>
-      </c>
-      <c r="D22" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="C22" s="7">
+        <v>35623487198</v>
+      </c>
+      <c r="D22" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="5">
-        <v>128.28</v>
+        <v>258</v>
       </c>
       <c r="G22" s="5">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J22" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="4">
-        <v>13120796784</v>
-      </c>
-      <c r="D23" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E23" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="C23" s="7">
+        <v>35653486178</v>
+      </c>
+      <c r="D23" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="5">
-        <v>128.28</v>
+        <v>258</v>
       </c>
       <c r="G23" s="5">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J23" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4">
-        <v>13084797964</v>
-      </c>
-      <c r="D24" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E24" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="C24" s="7">
+        <v>35626487034</v>
+      </c>
+      <c r="D24" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="5">
-        <v>128.28</v>
+        <v>258</v>
       </c>
       <c r="G24" s="5">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J24" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="4">
-        <v>13120796784</v>
-      </c>
-      <c r="D25" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E25" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="C25" s="7">
+        <v>35626487034</v>
+      </c>
+      <c r="D25" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="5">
-        <v>128.28</v>
+        <v>258</v>
       </c>
       <c r="G25" s="5">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J25" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="4">
-        <v>13084797964</v>
-      </c>
-      <c r="D26" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E26" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="C26" s="7">
+        <v>35617487326</v>
+      </c>
+      <c r="D26" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="5">
-        <v>128.28</v>
+        <v>258</v>
       </c>
       <c r="G26" s="5">
-        <v>12.5</v>
+        <v>31</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J26" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="4">
-        <v>13084797964</v>
-      </c>
-      <c r="D27" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E27" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="C27" s="7">
+        <v>72499089446</v>
+      </c>
+      <c r="D27" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="5">
-        <v>128.28</v>
+        <v>258</v>
       </c>
       <c r="G27" s="5">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J27" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="4">
-        <v>13120796784</v>
-      </c>
-      <c r="D28" s="8">
-        <v>419.06</v>
-      </c>
-      <c r="E28" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C28" s="7">
+        <v>16925097100</v>
+      </c>
+      <c r="D28" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="5">
-        <v>128.28</v>
+        <v>258</v>
       </c>
       <c r="G28" s="5">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J28" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>29</v>
+      <c r="A29" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4">
-        <v>57403594254</v>
-      </c>
-      <c r="D29" s="8">
-        <v>432.2</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C29" s="7">
+        <v>16922097264</v>
+      </c>
+      <c r="D29" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="5">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="G29" s="5">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J29" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="4">
-        <v>57400594318</v>
-      </c>
-      <c r="D30" s="8">
-        <v>432.2</v>
-      </c>
-      <c r="E30" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C30" s="7">
+        <v>24920594500</v>
+      </c>
+      <c r="D30" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="5">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="G30" s="5">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J30" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="4">
-        <v>48661238356</v>
-      </c>
-      <c r="D31" s="8">
-        <v>432.2</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C31" s="7">
+        <v>16901097902</v>
+      </c>
+      <c r="D31" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="5">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="G31" s="5">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J31" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="4">
-        <v>57298597798</v>
-      </c>
-      <c r="D32" s="8">
-        <v>432.2</v>
-      </c>
-      <c r="E32" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="C32" s="7">
+        <v>10466646698</v>
+      </c>
+      <c r="D32" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="5">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="G32" s="5">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J32" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="4">
-        <v>17602637114</v>
-      </c>
-      <c r="D33" s="8">
-        <v>449.4</v>
-      </c>
-      <c r="E33" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="C33" s="7">
+        <v>10460646816</v>
+      </c>
+      <c r="D33" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="5">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="G33" s="5">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J33" s="6">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="4">
-        <v>17626636322</v>
-      </c>
-      <c r="D34" s="8">
-        <v>449.4</v>
-      </c>
-      <c r="E34" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="C34" s="7">
+        <v>10457646980</v>
+      </c>
+      <c r="D34" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="5">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="G34" s="5">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J34" s="6">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="4">
-        <v>17605637050</v>
-      </c>
-      <c r="D35" s="8">
-        <v>449.4</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="C35" s="7">
+        <v>10445647326</v>
+      </c>
+      <c r="D35" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="5">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="G35" s="5">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J35" s="6">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="4">
-        <v>13682404288</v>
-      </c>
-      <c r="D36" s="8">
-        <v>449.4</v>
-      </c>
-      <c r="E36" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C36" s="7">
+        <v>42214267176</v>
+      </c>
+      <c r="D36" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E36" s="9"/>
       <c r="F36" s="5">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="G36" s="5">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J36" s="6">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="4">
-        <v>16867661674</v>
-      </c>
-      <c r="D37" s="8">
-        <v>455</v>
-      </c>
-      <c r="E37" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="C37" s="7">
+        <v>35620487252</v>
+      </c>
+      <c r="D37" s="9">
+        <v>477.4</v>
+      </c>
+      <c r="E37" s="9"/>
       <c r="F37" s="5">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="G37" s="5">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J37" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="4">
-        <v>16735666022</v>
-      </c>
-      <c r="D38" s="8">
-        <v>455</v>
-      </c>
-      <c r="E38" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="C38" s="7">
+        <v>35641486524</v>
+      </c>
+      <c r="D38" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="E38" s="9"/>
       <c r="F38" s="5">
-        <v>137</v>
+        <v>164.17</v>
       </c>
       <c r="G38" s="5">
-        <v>25</v>
+        <v>11.67</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J38" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="4">
-        <v>16852662174</v>
-      </c>
-      <c r="D39" s="8">
-        <v>455</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="C39" s="7">
+        <v>35638486698</v>
+      </c>
+      <c r="D39" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="5">
-        <v>137</v>
+        <v>164.17</v>
       </c>
       <c r="G39" s="5">
-        <v>44</v>
+        <v>11.67</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J39" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="4">
-        <v>17608636906</v>
-      </c>
-      <c r="D40" s="8">
-        <v>324.98</v>
-      </c>
-      <c r="E40" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="C40" s="7">
+        <v>35644486460</v>
+      </c>
+      <c r="D40" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="5">
-        <v>141</v>
+        <v>164.17</v>
       </c>
       <c r="G40" s="5">
-        <v>71</v>
+        <v>11.67</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J40" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="4">
-        <v>35986034480</v>
-      </c>
-      <c r="D41" s="8">
-        <v>324.98</v>
-      </c>
-      <c r="E41" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="C41" s="7">
+        <v>35641486524</v>
+      </c>
+      <c r="D41" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="5">
-        <v>141</v>
+        <v>164.17</v>
       </c>
       <c r="G41" s="5">
-        <v>23</v>
+        <v>12.95</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J41" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="4">
-        <v>32728132930</v>
-      </c>
-      <c r="D42" s="8">
-        <v>324.98</v>
-      </c>
-      <c r="E42" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="C42" s="7">
+        <v>35638486698</v>
+      </c>
+      <c r="D42" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="5">
-        <v>141</v>
+        <v>164.17</v>
       </c>
       <c r="G42" s="5">
-        <v>25</v>
+        <v>12.95</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J42" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="4">
-        <v>32704133722</v>
-      </c>
-      <c r="D43" s="8">
-        <v>324.98</v>
-      </c>
-      <c r="E43" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="C43" s="7">
+        <v>35644486460</v>
+      </c>
+      <c r="D43" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="5">
-        <v>141</v>
+        <v>164.17</v>
       </c>
       <c r="G43" s="5">
-        <v>21</v>
+        <v>12.95</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="6">
-        <v>3008</v>
+        <v>2901</v>
       </c>
       <c r="J43" s="6">
-        <v>21</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="7">
+        <v>10458026668</v>
+      </c>
+      <c r="D44" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="5">
+        <v>164.17</v>
+      </c>
+      <c r="G44" s="5">
+        <v>38.85</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J44" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="7">
+        <v>19865107298</v>
+      </c>
+      <c r="D45" s="9">
+        <v>349.4</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="5">
+        <v>164.17</v>
+      </c>
+      <c r="G45" s="5">
+        <v>51.43</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J45" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="9">
+        <v>233.625</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="5">
+        <v>87</v>
+      </c>
+      <c r="G46" s="5">
+        <v>43</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J46" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="7">
+        <v>14156919680</v>
+      </c>
+      <c r="D47" s="9">
+        <v>233.625</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="5">
+        <v>87</v>
+      </c>
+      <c r="G47" s="5">
+        <v>8</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J47" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="7">
+        <v>12596234844</v>
+      </c>
+      <c r="D48" s="9">
+        <v>233.625</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="5">
+        <v>87</v>
+      </c>
+      <c r="G48" s="5">
+        <v>8</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J48" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="7">
+        <v>12575235572</v>
+      </c>
+      <c r="D49" s="9">
+        <v>233.625</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="5">
+        <v>87</v>
+      </c>
+      <c r="G49" s="5">
+        <v>8</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J49" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="7">
+        <v>31090824108</v>
+      </c>
+      <c r="D50" s="9">
+        <v>233.625</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="5">
+        <v>87</v>
+      </c>
+      <c r="G50" s="5">
+        <v>19</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J50" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="7">
+        <v>31090824108</v>
+      </c>
+      <c r="D51" s="9">
+        <v>227.345</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="5">
+        <v>83</v>
+      </c>
+      <c r="G51" s="5">
+        <v>83</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J51" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="7">
+        <v>54592612622</v>
+      </c>
+      <c r="D52" s="9">
+        <v>503.4</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5">
+        <v>170</v>
+      </c>
+      <c r="G52" s="5">
+        <v>170</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J52" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="7">
+        <v>54592612622</v>
+      </c>
+      <c r="D53" s="9">
+        <v>378.10499999999996</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="5">
+        <v>155.36000000000001</v>
+      </c>
+      <c r="G53" s="5">
+        <v>155.36000000000001</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6">
+        <v>2901</v>
+      </c>
+      <c r="J53" s="6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate>
     <dataRefs count="1">
-      <dataRef ref="L2" sheet="İNÖNÜ MH."/>
+      <dataRef ref="L2" sheet="GÜNEŞLİ MH."/>
     </dataRefs>
   </dataConsolidate>
   <phoneticPr fontId="3" type="noConversion"/>
